--- a/InputData/elec/SoFCtMbCtPR/Shr of Fwd Costs that Must be Covered to be Prevent Retirement.xlsx
+++ b/InputData/elec/SoFCtMbCtPR/Shr of Fwd Costs that Must be Covered to be Prevent Retirement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\SoFCtMbCtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoFCtMbCtPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB0841-495D-4218-BEB1-0995A1780FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA506D96-49CB-4C13-BA28-ACBBE8A2DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
@@ -495,7 +495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA106A-E484-4E2B-B3F9-91B326CF3E2A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -525,7 +527,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +660,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +684,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,7 +716,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,7 +724,7 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,7 +732,7 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
